--- a/biology/Zoologie/Idea_electra/Idea_electra.xlsx
+++ b/biology/Zoologie/Idea_electra/Idea_electra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Idea electra est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Danainae et du genre Idea.
 </t>
@@ -511,14 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idea electra a été décrit par Georg Semper en 1878 sous le nom initial d'Hestia electra[1].
-Sous-espèces
-Idea electra electra; présent aux Philippines.
-Idea electra harmonia Fruhstorfer, 1910; présent aux Philippines.
-Nom vernaculaire
-Idea electra se nomme Electra's Tree-nymph en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idea electra a été décrit par Georg Semper en 1878 sous le nom initial d'Hestia electra.
 </t>
         </is>
       </c>
@@ -544,13 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Idea electra est un grand papillon blanc veiné de noir et orné  d'une marge noire ornée de points blancs et d'une ligne submarginale de chevrons blancs.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Idea electra electra; présent aux Philippines.
+Idea electra harmonia Fruhstorfer, 1910; présent aux Philippines.</t>
         </is>
       </c>
     </row>
@@ -575,12 +590,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plantes hôtes</t>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idea electra se nomme Electra's Tree-nymph en anglais.
+</t>
         </is>
       </c>
     </row>
@@ -605,15 +627,84 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idea electra est un grand papillon blanc veiné de noir et orné  d'une marge noire ornée de points blancs et d'une ligne submarginale de chevrons blancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Idea_electra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Idea_electra</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idea electra est présent aux Philippines[1].
-Biotope
-Protection
-Idea electra est noté vulnérable sur le red data book de l'IUCN[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idea electra est présent aux Philippines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Idea_electra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Idea_electra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idea electra est noté vulnérable sur le red data book de l'IUCN.
 </t>
         </is>
       </c>
